--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.852</v>
+        <v>-21.76</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.918000000000001</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.306</v>
+        <v>-20.469</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.428</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.734999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.664</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>6.152000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.842000000000001</v>
+        <v>6.216</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.463999999999999</v>
+        <v>7.932</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.486</v>
+        <v>5.323</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.923999999999999</v>
+        <v>6.226</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.172</v>
+        <v>5.813000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.944</v>
+        <v>-21.945</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.839999999999999</v>
+        <v>4.671</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.023999999999999</v>
+        <v>5.003</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.302</v>
+        <v>-21.303</v>
       </c>
       <c r="B57" t="n">
-        <v>7.49</v>
+        <v>6.432</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.518000000000001</v>
+        <v>-8.231999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.182</v>
+        <v>-22.397</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.847999999999999</v>
+        <v>-7.704000000000001</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.649</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.116</v>
+        <v>-7.132</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.674000000000001</v>
+        <v>6.751</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.106</v>
+        <v>-21.137</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-22.065</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.145999999999999</v>
+        <v>-8.246</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.674</v>
+        <v>5.946</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.664</v>
+        <v>5.671</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.892</v>
+        <v>-21.398</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.168000000000001</v>
+        <v>-8.099</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.105999999999998</v>
+        <v>-8.022000000000002</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.841999999999999</v>
+        <v>-8.285</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
